--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_371__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_371__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5426,25 +5426,25 @@
                   <c:v>96.36270141601562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.36559295654297</c:v>
+                  <c:v>55.3655891418457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29.44663238525391</c:v>
+                  <c:v>29.44663429260254</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.74605178833008</c:v>
+                  <c:v>50.74604797363281</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>95.61277770996094</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>98.33314514160156</c:v>
+                  <c:v>98.33316040039062</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>89.64956665039062</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.83677673339844</c:v>
+                  <c:v>97.8367919921875</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>48.31106948852539</c:v>
@@ -5453,7 +5453,7 @@
                   <c:v>97.58528137207031</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.584716796875</c:v>
+                  <c:v>90.58473205566406</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>77.14813232421875</c:v>
@@ -5492,7 +5492,7 @@
                   <c:v>96.41351318359375</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>95.04890441894531</c:v>
+                  <c:v>95.04888916015625</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>89.28318786621094</c:v>
@@ -5522,13 +5522,13 @@
                   <c:v>83.90605163574219</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39.42299652099609</c:v>
+                  <c:v>39.42298889160156</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>89.27815246582031</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>96.54023742675781</c:v>
+                  <c:v>96.54025268554688</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>59.46235275268555</c:v>
@@ -5540,7 +5540,7 @@
                   <c:v>35.39282989501953</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>86.7447509765625</c:v>
+                  <c:v>86.74476623535156</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>83.87217712402344</c:v>
@@ -5552,7 +5552,7 @@
                   <c:v>91.76390075683594</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>96.42050170898438</c:v>
+                  <c:v>96.42048645019531</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>83.68821716308594</c:v>
@@ -5561,13 +5561,13 @@
                   <c:v>96.90904235839844</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98.15574645996094</c:v>
+                  <c:v>98.15576171875</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>83.671630859375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>86.383056640625</c:v>
+                  <c:v>86.38307189941406</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>97.46900939941406</c:v>
@@ -5576,7 +5576,7 @@
                   <c:v>71.22873687744141</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>89.17495727539062</c:v>
+                  <c:v>89.17494201660156</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>54.98856735229492</c:v>
@@ -5585,10 +5585,10 @@
                   <c:v>95.9742431640625</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>78.03009033203125</c:v>
+                  <c:v>78.03007507324219</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>53.44190216064453</c:v>
+                  <c:v>53.44190979003906</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>97.19694519042969</c:v>
@@ -5597,7 +5597,7 @@
                   <c:v>48.41764068603516</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>84.46876525878906</c:v>
+                  <c:v>84.46875</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>97.67189025878906</c:v>
@@ -5606,7 +5606,7 @@
                   <c:v>97.32688903808594</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>97.55351257324219</c:v>
+                  <c:v>97.55352783203125</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>86.9468994140625</c:v>
@@ -5615,13 +5615,13 @@
                   <c:v>95.65408325195312</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>88.78013610839844</c:v>
+                  <c:v>88.7801513671875</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>97.68278503417969</c:v>
+                  <c:v>97.68280029296875</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>61.21362686157227</c:v>
+                  <c:v>61.213623046875</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>81.92727661132812</c:v>
@@ -5642,13 +5642,13 @@
                   <c:v>28.3172721862793</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>64.42279815673828</c:v>
+                  <c:v>64.42279052734375</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>85.70819091796875</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>55.02681732177734</c:v>
+                  <c:v>55.02680969238281</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>83.3505859375</c:v>
@@ -5657,7 +5657,7 @@
                   <c:v>64.95840454101562</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>51.76516342163086</c:v>
+                  <c:v>51.76516723632812</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>97.94035339355469</c:v>
@@ -5666,7 +5666,7 @@
                   <c:v>97.70018005371094</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>85.69075012207031</c:v>
+                  <c:v>85.69073486328125</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>62.59796142578125</c:v>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>55.36559295654297</v>
+        <v>55.3655891418457</v>
       </c>
       <c r="G5">
         <v>104</v>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>29.44663238525391</v>
+        <v>29.44663429260254</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>58.4074</v>
       </c>
       <c r="F7">
-        <v>50.74605178833008</v>
+        <v>50.74604797363281</v>
       </c>
       <c r="G7">
         <v>104</v>
@@ -6591,7 +6591,7 @@
         <v>97.65470000000001</v>
       </c>
       <c r="F9">
-        <v>98.33314514160156</v>
+        <v>98.33316040039062</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>97.2368</v>
       </c>
       <c r="F11">
-        <v>97.83677673339844</v>
+        <v>97.8367919921875</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F14">
-        <v>90.584716796875</v>
+        <v>90.58473205566406</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6951,7 +6951,7 @@
         <v>94.6755</v>
       </c>
       <c r="F27">
-        <v>95.04890441894531</v>
+        <v>95.04888916015625</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>38.4808</v>
       </c>
       <c r="F37">
-        <v>39.42299652099609</v>
+        <v>39.42298889160156</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>96.8449</v>
       </c>
       <c r="F39">
-        <v>96.54023742675781</v>
+        <v>96.54025268554688</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>86.58159999999999</v>
       </c>
       <c r="F43">
-        <v>86.7447509765625</v>
+        <v>86.74476623535156</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>96.2886</v>
       </c>
       <c r="F47">
-        <v>96.42050170898438</v>
+        <v>96.42048645019531</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>97.4067</v>
       </c>
       <c r="F50">
-        <v>98.15574645996094</v>
+        <v>98.15576171875</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>85.7353</v>
       </c>
       <c r="F52">
-        <v>86.383056640625</v>
+        <v>86.38307189941406</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>89.41589999999999</v>
       </c>
       <c r="F55">
-        <v>89.17495727539062</v>
+        <v>89.17494201660156</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>79.8115</v>
       </c>
       <c r="F58">
-        <v>78.03009033203125</v>
+        <v>78.03007507324219</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>53.44190216064453</v>
+        <v>53.44190979003906</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>87.61150000000001</v>
       </c>
       <c r="F62">
-        <v>84.46876525878906</v>
+        <v>84.46875</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>97.21169999999999</v>
       </c>
       <c r="F65">
-        <v>97.55351257324219</v>
+        <v>97.55352783203125</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>89.94750000000001</v>
       </c>
       <c r="F68">
-        <v>88.78013610839844</v>
+        <v>88.7801513671875</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>97.4348</v>
       </c>
       <c r="F69">
-        <v>97.68278503417969</v>
+        <v>97.68280029296875</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>62.6537</v>
       </c>
       <c r="F70">
-        <v>61.21362686157227</v>
+        <v>61.213623046875</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>64.7646</v>
       </c>
       <c r="F77">
-        <v>64.42279815673828</v>
+        <v>64.42279052734375</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>57.9591</v>
       </c>
       <c r="F79">
-        <v>55.02681732177734</v>
+        <v>55.02680969238281</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>51.76516342163086</v>
+        <v>51.76516723632812</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>85.0705</v>
       </c>
       <c r="F85">
-        <v>85.69075012207031</v>
+        <v>85.69073486328125</v>
       </c>
     </row>
     <row r="86" spans="1:6">
